--- a/data/pca/factorExposure/factorExposure_2009-08-21.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-08-21.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01770450962383762</v>
+        <v>0.01684250883810271</v>
       </c>
       <c r="C2">
-        <v>-0.001554724148854596</v>
+        <v>-0.000925720919303854</v>
       </c>
       <c r="D2">
-        <v>-0.003724260708578166</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.009495044368304194</v>
+      </c>
+      <c r="E2">
+        <v>0.002209639816812877</v>
+      </c>
+      <c r="F2">
+        <v>-0.01320842392470777</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +751,36 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.09556147691096388</v>
+        <v>0.09393267059248965</v>
       </c>
       <c r="C4">
-        <v>-0.02100503378991164</v>
+        <v>-0.01471974713228703</v>
       </c>
       <c r="D4">
-        <v>-0.0662994908135028</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.08370983003912046</v>
+      </c>
+      <c r="E4">
+        <v>0.02883730065461741</v>
+      </c>
+      <c r="F4">
+        <v>0.03303444888070957</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,192 +791,276 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1488288696745763</v>
+        <v>0.1593818284033698</v>
       </c>
       <c r="C6">
-        <v>-0.02761531489363256</v>
+        <v>-0.02703675705235311</v>
       </c>
       <c r="D6">
-        <v>0.02601786030579788</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.02528688441446029</v>
+      </c>
+      <c r="E6">
+        <v>0.008893539872052294</v>
+      </c>
+      <c r="F6">
+        <v>0.04162111751675435</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.06416445699791944</v>
+        <v>0.06357558012888241</v>
       </c>
       <c r="C7">
-        <v>-0.002919540190184076</v>
+        <v>0.001687687154145801</v>
       </c>
       <c r="D7">
-        <v>-0.03980489284981467</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05238472658038466</v>
+      </c>
+      <c r="E7">
+        <v>0.01195448118208101</v>
+      </c>
+      <c r="F7">
+        <v>0.04682093808019949</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.06378083427482197</v>
+        <v>0.05796182978456522</v>
       </c>
       <c r="C8">
-        <v>0.009841700598949723</v>
+        <v>0.01308993992415894</v>
       </c>
       <c r="D8">
-        <v>-0.01825416382427127</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03183502974550464</v>
+      </c>
+      <c r="E8">
+        <v>0.01769257402251912</v>
+      </c>
+      <c r="F8">
+        <v>-0.02598664025126535</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.07353102138829659</v>
+        <v>0.07087997284462531</v>
       </c>
       <c r="C9">
-        <v>-0.01727603441446785</v>
+        <v>-0.01029759459750028</v>
       </c>
       <c r="D9">
-        <v>-0.06861110246057041</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.08721659264941073</v>
+      </c>
+      <c r="E9">
+        <v>0.02398371073262485</v>
+      </c>
+      <c r="F9">
+        <v>0.04709772063789456</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.08262918269449172</v>
+        <v>0.09010669976390383</v>
       </c>
       <c r="C10">
-        <v>-0.01222320583813313</v>
+        <v>-0.0206475941694469</v>
       </c>
       <c r="D10">
-        <v>0.1663968954893396</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1628794021778136</v>
+      </c>
+      <c r="E10">
+        <v>-0.03201942101157054</v>
+      </c>
+      <c r="F10">
+        <v>-0.05731619433695324</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.0933453146437373</v>
+        <v>0.08820982987721147</v>
       </c>
       <c r="C11">
-        <v>-0.0181277885838141</v>
+        <v>-0.01040622159104384</v>
       </c>
       <c r="D11">
-        <v>-0.09614936597554014</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.1169374411980129</v>
+      </c>
+      <c r="E11">
+        <v>0.04635530248983773</v>
+      </c>
+      <c r="F11">
+        <v>0.02318463861946582</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.09931185622080475</v>
+        <v>0.09156196607303692</v>
       </c>
       <c r="C12">
-        <v>-0.0159861539924031</v>
+        <v>-0.007723585692526337</v>
       </c>
       <c r="D12">
-        <v>-0.09929092089273316</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.1316687674798754</v>
+      </c>
+      <c r="E12">
+        <v>0.04573698530066443</v>
+      </c>
+      <c r="F12">
+        <v>0.03132118800756476</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.04426774611660942</v>
+        <v>0.0414602932424815</v>
       </c>
       <c r="C13">
-        <v>-0.005925628497080769</v>
+        <v>-0.002421101522946362</v>
       </c>
       <c r="D13">
-        <v>-0.03056056591715245</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.05358451353145512</v>
+      </c>
+      <c r="E13">
+        <v>-0.003874156687578257</v>
+      </c>
+      <c r="F13">
+        <v>0.0009987712173135242</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.01995525271614796</v>
+        <v>0.02417758394575309</v>
       </c>
       <c r="C14">
-        <v>-0.01539562806665695</v>
+        <v>-0.01384579807119848</v>
       </c>
       <c r="D14">
-        <v>-0.02431090487881112</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03374741441835299</v>
+      </c>
+      <c r="E14">
+        <v>0.0191677725536423</v>
+      </c>
+      <c r="F14">
+        <v>0.01423128229104375</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.03504278693649979</v>
+        <v>0.03309719628098289</v>
       </c>
       <c r="C15">
-        <v>-0.007886166355922257</v>
+        <v>-0.004707781926889251</v>
       </c>
       <c r="D15">
-        <v>-0.02974846290705678</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.04507289028483091</v>
+      </c>
+      <c r="E15">
+        <v>0.005985070009886675</v>
+      </c>
+      <c r="F15">
+        <v>0.02552741961841854</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.07862268557555679</v>
+        <v>0.07411084493697402</v>
       </c>
       <c r="C16">
-        <v>-0.008883409769081143</v>
+        <v>-0.0009611243451104543</v>
       </c>
       <c r="D16">
-        <v>-0.09813758816018828</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.1273437592057206</v>
+      </c>
+      <c r="E16">
+        <v>0.06051716250085298</v>
+      </c>
+      <c r="F16">
+        <v>0.02772535854526521</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.0007992407241842096</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.0002086772846860332</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>-0.001616208795335434</v>
+      </c>
+      <c r="E17">
+        <v>0.0009887613819072483</v>
+      </c>
+      <c r="F17">
+        <v>-0.002340910529734447</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>-0.01737073568252126</v>
+        <v>0.0367101717891586</v>
       </c>
       <c r="C18">
-        <v>0.003108747269789984</v>
+        <v>0.002905032523589759</v>
       </c>
       <c r="D18">
-        <v>-0.02993969076878224</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.01540317887183723</v>
+      </c>
+      <c r="E18">
+        <v>-0.008855099314593945</v>
+      </c>
+      <c r="F18">
+        <v>-0.008641216175274106</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.06604027485781476</v>
+        <v>0.06240717231207005</v>
       </c>
       <c r="C20">
-        <v>-0.006835996999349792</v>
+        <v>-0.0002109131632744808</v>
       </c>
       <c r="D20">
-        <v>-0.05030512387507484</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.07697051689529857</v>
+      </c>
+      <c r="E20">
+        <v>0.05545107894569202</v>
+      </c>
+      <c r="F20">
+        <v>0.03029734736738486</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.04073635051853387</v>
+        <v>0.0407601339731533</v>
       </c>
       <c r="C21">
-        <v>-0.01009009028894386</v>
+        <v>-0.00638366144542978</v>
       </c>
       <c r="D21">
-        <v>-0.02925101230622797</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.03884549776841836</v>
+      </c>
+      <c r="E21">
+        <v>-0.0003413897667061639</v>
+      </c>
+      <c r="F21">
+        <v>-0.02378899613506727</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.04068364109979041</v>
+        <v>0.04327448667378515</v>
       </c>
       <c r="C22">
-        <v>-0.0008835973494515307</v>
+        <v>-0.0004967588776605608</v>
       </c>
       <c r="D22">
-        <v>0.0116411159711673</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.004045646219636143</v>
+      </c>
+      <c r="E22">
+        <v>0.03660809204823733</v>
+      </c>
+      <c r="F22">
+        <v>-0.03878425082187568</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.04064709093436878</v>
+        <v>0.0432503388695591</v>
       </c>
       <c r="C23">
-        <v>-0.0008738706092290997</v>
+        <v>-0.0004882673101406332</v>
       </c>
       <c r="D23">
-        <v>0.0116214437015463</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.004061150858814171</v>
+      </c>
+      <c r="E23">
+        <v>0.03679113105437843</v>
+      </c>
+      <c r="F23">
+        <v>-0.03874413976167294</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.0847713335681204</v>
+        <v>0.08004060284250736</v>
       </c>
       <c r="C24">
-        <v>-0.009220343466231566</v>
+        <v>-0.001746702854587326</v>
       </c>
       <c r="D24">
-        <v>-0.1032928876958993</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.1198353809397412</v>
+      </c>
+      <c r="E24">
+        <v>0.04845319145271702</v>
+      </c>
+      <c r="F24">
+        <v>0.02981318961146152</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.08972914786730612</v>
+        <v>0.08475932242440233</v>
       </c>
       <c r="C25">
-        <v>-0.01166764252212053</v>
+        <v>-0.004267043096999268</v>
       </c>
       <c r="D25">
-        <v>-0.0896075051675715</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.1093795646846717</v>
+      </c>
+      <c r="E25">
+        <v>0.03197053733938923</v>
+      </c>
+      <c r="F25">
+        <v>0.02673509213961894</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.05895608000933018</v>
+        <v>0.05914012022130931</v>
       </c>
       <c r="C26">
-        <v>-0.01800939252862215</v>
+        <v>-0.01451270416432368</v>
       </c>
       <c r="D26">
-        <v>-0.01833122048295898</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.04230246542800333</v>
+      </c>
+      <c r="E26">
+        <v>0.0297751491865785</v>
+      </c>
+      <c r="F26">
+        <v>-0.005048072793814903</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1231,216 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.1302650703978234</v>
+        <v>0.1414693494449781</v>
       </c>
       <c r="C28">
-        <v>-0.01078749412088118</v>
+        <v>-0.02224096688049329</v>
       </c>
       <c r="D28">
-        <v>0.2719665183802906</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2612376470060218</v>
+      </c>
+      <c r="E28">
+        <v>-0.06747406587736937</v>
+      </c>
+      <c r="F28">
+        <v>0.003965186821893787</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.0264466050913509</v>
+        <v>0.02891409217624355</v>
       </c>
       <c r="C29">
-        <v>-0.009979497010680757</v>
+        <v>-0.008784338997473108</v>
       </c>
       <c r="D29">
-        <v>-0.0211770993680677</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.03127947989143674</v>
+      </c>
+      <c r="E29">
+        <v>0.0140630754051369</v>
+      </c>
+      <c r="F29">
+        <v>-0.01246931844139867</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.06725582274640594</v>
+        <v>0.05921813649533679</v>
       </c>
       <c r="C30">
-        <v>-0.01065291903579307</v>
+        <v>-0.002699321016003884</v>
       </c>
       <c r="D30">
-        <v>-0.05968873232298411</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.08786194238426254</v>
+      </c>
+      <c r="E30">
+        <v>0.01394532350068986</v>
+      </c>
+      <c r="F30">
+        <v>0.08025808332143468</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.05105260920880111</v>
+        <v>0.05127107337705046</v>
       </c>
       <c r="C31">
-        <v>-0.01704063875793861</v>
+        <v>-0.01565396530665906</v>
       </c>
       <c r="D31">
-        <v>-0.02026306340314551</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02440438861914199</v>
+      </c>
+      <c r="E31">
+        <v>0.02878900674869207</v>
+      </c>
+      <c r="F31">
+        <v>-0.001023164468404734</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.04798829795037638</v>
+        <v>0.05159019377621679</v>
       </c>
       <c r="C32">
-        <v>-0.002422737299540381</v>
+        <v>0.001779359345483463</v>
       </c>
       <c r="D32">
-        <v>-0.01946483650145155</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.03626869277432943</v>
+      </c>
+      <c r="E32">
+        <v>0.03458125000139336</v>
+      </c>
+      <c r="F32">
+        <v>0.004494397396418751</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.09377541711741412</v>
+        <v>0.08860345932978297</v>
       </c>
       <c r="C33">
-        <v>-0.014294223039344</v>
+        <v>-0.006478344374665875</v>
       </c>
       <c r="D33">
-        <v>-0.07736049473431</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1028579701855505</v>
+      </c>
+      <c r="E33">
+        <v>0.0447496082792936</v>
+      </c>
+      <c r="F33">
+        <v>0.03967260501195258</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.07153382582025522</v>
+        <v>0.06792924660239816</v>
       </c>
       <c r="C34">
-        <v>-0.01636660357982863</v>
+        <v>-0.01003902043363368</v>
       </c>
       <c r="D34">
-        <v>-0.08416676591030732</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.1099675564832468</v>
+      </c>
+      <c r="E34">
+        <v>0.03502327055407061</v>
+      </c>
+      <c r="F34">
+        <v>0.03328509307756794</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.02396038895764111</v>
+        <v>0.02564183240698925</v>
       </c>
       <c r="C35">
-        <v>-0.00295893072397997</v>
+        <v>-0.002612330380693391</v>
       </c>
       <c r="D35">
-        <v>-0.00659375970832104</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.0120731695479919</v>
+      </c>
+      <c r="E35">
+        <v>0.01275451657827923</v>
+      </c>
+      <c r="F35">
+        <v>0.001658086293484351</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.02714422212397681</v>
+        <v>0.02764427574425467</v>
       </c>
       <c r="C36">
-        <v>-0.008081540177295156</v>
+        <v>-0.006861912938207045</v>
       </c>
       <c r="D36">
-        <v>-0.03876992508172919</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.03978918167579884</v>
+      </c>
+      <c r="E36">
+        <v>0.01675329422679753</v>
+      </c>
+      <c r="F36">
+        <v>0.01531234587866611</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>-9.948866441701303e-05</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>0.0005325018911958389</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>-0.002074658080363052</v>
+      </c>
+      <c r="E37">
+        <v>-0.0007810202422424609</v>
+      </c>
+      <c r="F37">
+        <v>-0.001641810754707584</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1451,76 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.1172398402139545</v>
+        <v>0.1039224997194268</v>
       </c>
       <c r="C39">
-        <v>-0.02492380208088619</v>
+        <v>-0.01565259236592844</v>
       </c>
       <c r="D39">
-        <v>-0.1393985979862978</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1539043889439225</v>
+      </c>
+      <c r="E39">
+        <v>0.05902701253351497</v>
+      </c>
+      <c r="F39">
+        <v>0.03087462544096972</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.0407746873581774</v>
+        <v>0.04350760658048862</v>
       </c>
       <c r="C40">
-        <v>-0.009904761293365904</v>
+        <v>-0.007431149920115509</v>
       </c>
       <c r="D40">
-        <v>-0.007992166923639439</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03047925091839359</v>
+      </c>
+      <c r="E40">
+        <v>0.001954336610179523</v>
+      </c>
+      <c r="F40">
+        <v>-0.01898261775115307</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.02556173184931824</v>
+        <v>0.02777076166898992</v>
       </c>
       <c r="C41">
-        <v>-0.007113788876351042</v>
+        <v>-0.006826127306756094</v>
       </c>
       <c r="D41">
-        <v>-0.009824155740172962</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01083001025423571</v>
+      </c>
+      <c r="E41">
+        <v>0.01231639264332913</v>
+      </c>
+      <c r="F41">
+        <v>-0.005617911497376489</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.0424741209746349</v>
+        <v>0.0411717831775095</v>
       </c>
       <c r="C43">
-        <v>-0.008312679269907062</v>
+        <v>-0.007150435123388872</v>
       </c>
       <c r="D43">
-        <v>-0.0131838598125747</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.01870782061922434</v>
+      </c>
+      <c r="E43">
+        <v>0.02564467026430539</v>
+      </c>
+      <c r="F43">
+        <v>-0.01291894673410035</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.07652526049078678</v>
+        <v>0.08014970215147048</v>
       </c>
       <c r="C44">
-        <v>-0.02731618398926107</v>
+        <v>-0.01936530600642156</v>
       </c>
       <c r="D44">
-        <v>-0.07781149708453673</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.0977895292244458</v>
+      </c>
+      <c r="E44">
+        <v>0.06190267541106063</v>
+      </c>
+      <c r="F44">
+        <v>0.1605448015514799</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,80 +1591,116 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.0206911511230285</v>
+        <v>0.02332734827852061</v>
       </c>
       <c r="C46">
-        <v>-0.003871682411579476</v>
+        <v>-0.003322140289950828</v>
       </c>
       <c r="D46">
-        <v>-0.005759492564744386</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01282194143143256</v>
+      </c>
+      <c r="E46">
+        <v>0.02587993870719346</v>
+      </c>
+      <c r="F46">
+        <v>-0.007066163977570412</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.0534491392416627</v>
+        <v>0.05270461688911672</v>
       </c>
       <c r="C47">
-        <v>-0.00456177771466595</v>
+        <v>-0.003829267777881098</v>
       </c>
       <c r="D47">
-        <v>-0.007151273962717512</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01151185672235192</v>
+      </c>
+      <c r="E47">
+        <v>0.0234255825040768</v>
+      </c>
+      <c r="F47">
+        <v>-0.03258432391940525</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.04947640476139161</v>
+        <v>0.05009904979520229</v>
       </c>
       <c r="C48">
-        <v>-0.005093888201907274</v>
+        <v>-0.002147137969328748</v>
       </c>
       <c r="D48">
-        <v>-0.04134913227130799</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.05078256148140375</v>
+      </c>
+      <c r="E48">
+        <v>-0.004780065873460798</v>
+      </c>
+      <c r="F48">
+        <v>0.009874592511289738</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.2009369647005428</v>
+        <v>0.1996373028860908</v>
       </c>
       <c r="C49">
-        <v>-0.02118430071254637</v>
+        <v>-0.01901453697043303</v>
       </c>
       <c r="D49">
-        <v>0.01807777333813415</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.007457443674174658</v>
+      </c>
+      <c r="E49">
+        <v>0.029842392154036</v>
+      </c>
+      <c r="F49">
+        <v>0.04039537150056387</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.05039149203431856</v>
+        <v>0.05166404518836275</v>
       </c>
       <c r="C50">
-        <v>-0.013023906724154</v>
+        <v>-0.01139233070314533</v>
       </c>
       <c r="D50">
-        <v>-0.01973831655518219</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.02371059807353679</v>
+      </c>
+      <c r="E50">
+        <v>0.02998779312551564</v>
+      </c>
+      <c r="F50">
+        <v>0.009848446456379469</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.1551715270768156</v>
+        <v>0.1495867135334388</v>
       </c>
       <c r="C52">
-        <v>-0.01966814774948012</v>
+        <v>-0.0178214924383606</v>
       </c>
       <c r="D52">
-        <v>-0.04982694360459946</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.04086232773527033</v>
+      </c>
+      <c r="E52">
+        <v>0.02042528919752722</v>
+      </c>
+      <c r="F52">
+        <v>0.04328216492517796</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1725303754910614</v>
+        <v>0.171458418417568</v>
       </c>
       <c r="C53">
-        <v>-0.0193598154157997</v>
+        <v>-0.02016955414161467</v>
       </c>
       <c r="D53">
-        <v>-0.01415030927593347</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.003485246431623768</v>
+      </c>
+      <c r="E53">
+        <v>0.02798338058197337</v>
+      </c>
+      <c r="F53">
+        <v>0.07280347114909803</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.01811238991379401</v>
+        <v>0.02078056262341751</v>
       </c>
       <c r="C54">
-        <v>-0.01277297924245998</v>
+        <v>-0.01113847707923362</v>
       </c>
       <c r="D54">
-        <v>-0.02769057183329464</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03481530833828565</v>
+      </c>
+      <c r="E54">
+        <v>0.02228953291284623</v>
+      </c>
+      <c r="F54">
+        <v>-0.001781597604912752</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.114943894277377</v>
+        <v>0.1151063230944999</v>
       </c>
       <c r="C55">
-        <v>-0.01745452026865163</v>
+        <v>-0.01774586181091289</v>
       </c>
       <c r="D55">
-        <v>-0.01187800564906648</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.006401585134341688</v>
+      </c>
+      <c r="E55">
+        <v>0.02327064666004532</v>
+      </c>
+      <c r="F55">
+        <v>0.04667555327091332</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1783763099008219</v>
+        <v>0.1770068378748728</v>
       </c>
       <c r="C56">
-        <v>-0.01702251573575759</v>
+        <v>-0.01805506723108544</v>
       </c>
       <c r="D56">
-        <v>-0.01013971257443008</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.004035830918109008</v>
+      </c>
+      <c r="E56">
+        <v>0.0315083058026293</v>
+      </c>
+      <c r="F56">
+        <v>0.05302985612474272</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.04949819962569321</v>
+        <v>0.04480213839406436</v>
       </c>
       <c r="C58">
-        <v>-0.005871572393349261</v>
+        <v>0.0003944370049447163</v>
       </c>
       <c r="D58">
-        <v>-0.05434717084865666</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.07188447358308786</v>
+      </c>
+      <c r="E58">
+        <v>0.03283821194599641</v>
+      </c>
+      <c r="F58">
+        <v>-0.03653519112740332</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1605502773517589</v>
+        <v>0.1669106711491437</v>
       </c>
       <c r="C59">
-        <v>-0.01275058654540507</v>
+        <v>-0.02252791191608083</v>
       </c>
       <c r="D59">
-        <v>0.2246697151240913</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.2176458112143286</v>
+      </c>
+      <c r="E59">
+        <v>-0.04672760966758596</v>
+      </c>
+      <c r="F59">
+        <v>-0.03450981028870728</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2372334903128704</v>
+        <v>0.2317883606798826</v>
       </c>
       <c r="C60">
-        <v>-0.001209627342181805</v>
+        <v>0.001950475928784687</v>
       </c>
       <c r="D60">
-        <v>-0.04571809641607157</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.03866377436781512</v>
+      </c>
+      <c r="E60">
+        <v>0.006312009427600663</v>
+      </c>
+      <c r="F60">
+        <v>-0.0005300978538485969</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.08826890766034685</v>
+        <v>0.07992000451861245</v>
       </c>
       <c r="C61">
-        <v>-0.01855007931869732</v>
+        <v>-0.01120353935667338</v>
       </c>
       <c r="D61">
-        <v>-0.09794991020820136</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.1175694994616389</v>
+      </c>
+      <c r="E61">
+        <v>0.03905784003669151</v>
+      </c>
+      <c r="F61">
+        <v>0.01356650005370857</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1702661062592004</v>
+        <v>0.1692141102916653</v>
       </c>
       <c r="C62">
-        <v>-0.02115577191584631</v>
+        <v>-0.02087532982521287</v>
       </c>
       <c r="D62">
-        <v>-0.006550576372718144</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.004663300203247136</v>
+      </c>
+      <c r="E62">
+        <v>0.03236319481969022</v>
+      </c>
+      <c r="F62">
+        <v>0.03637988022797937</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.04434177805217576</v>
+        <v>0.04592120121709203</v>
       </c>
       <c r="C63">
-        <v>-0.006213021202354647</v>
+        <v>-0.001737775676260738</v>
       </c>
       <c r="D63">
-        <v>-0.04336196406872956</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.05954938734927788</v>
+      </c>
+      <c r="E63">
+        <v>0.02410561900780034</v>
+      </c>
+      <c r="F63">
+        <v>0.00421079718224798</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.1124104452133803</v>
+        <v>0.1104798365479188</v>
       </c>
       <c r="C64">
-        <v>-0.01489198716318339</v>
+        <v>-0.01136306919308031</v>
       </c>
       <c r="D64">
-        <v>-0.03202728496972455</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.04329648768582137</v>
+      </c>
+      <c r="E64">
+        <v>0.0225610160355031</v>
+      </c>
+      <c r="F64">
+        <v>0.02620994882803438</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.1393901447265624</v>
+        <v>0.150978264645866</v>
       </c>
       <c r="C65">
-        <v>-0.03322901835523964</v>
+        <v>-0.03432860919441622</v>
       </c>
       <c r="D65">
-        <v>0.04955099839842733</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.04551474517173421</v>
+      </c>
+      <c r="E65">
+        <v>0.004428077630855664</v>
+      </c>
+      <c r="F65">
+        <v>0.03592641229772454</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.1401912213810421</v>
+        <v>0.1238221885179464</v>
       </c>
       <c r="C66">
-        <v>-0.02306588805384346</v>
+        <v>-0.01366122229575382</v>
       </c>
       <c r="D66">
-        <v>-0.1171760127058784</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1410838451700387</v>
+      </c>
+      <c r="E66">
+        <v>0.06393448000538733</v>
+      </c>
+      <c r="F66">
+        <v>0.03443102440441479</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.06416218775416489</v>
+        <v>0.05725286044588923</v>
       </c>
       <c r="C67">
-        <v>-0.005626512820650049</v>
+        <v>-0.002863193505352325</v>
       </c>
       <c r="D67">
-        <v>-0.0527349223584004</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.05563841296441031</v>
+      </c>
+      <c r="E67">
+        <v>0.0164843807928595</v>
+      </c>
+      <c r="F67">
+        <v>-0.02964293984069006</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1037449298848721</v>
+        <v>0.115998676942878</v>
       </c>
       <c r="C68">
-        <v>-0.02102556373355943</v>
+        <v>-0.03299433452391381</v>
       </c>
       <c r="D68">
-        <v>0.2723355151553224</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2615723968117823</v>
+      </c>
+      <c r="E68">
+        <v>-0.08761195371729197</v>
+      </c>
+      <c r="F68">
+        <v>-0.001582386034490333</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.04024295630259375</v>
+        <v>0.03896242946329369</v>
       </c>
       <c r="C69">
-        <v>-0.001823464102274153</v>
+        <v>-0.001249917134502963</v>
       </c>
       <c r="D69">
-        <v>-0.007554369359618981</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.007850029227908513</v>
+      </c>
+      <c r="E69">
+        <v>0.02334983752665812</v>
+      </c>
+      <c r="F69">
+        <v>0.0008298059544543171</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.06788673031189107</v>
+        <v>0.06676815491040947</v>
       </c>
       <c r="C70">
-        <v>0.02409865883008632</v>
+        <v>0.02735383189293415</v>
       </c>
       <c r="D70">
-        <v>0.01409401590601845</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.02439785366206657</v>
+      </c>
+      <c r="E70">
+        <v>-0.03065087707461646</v>
+      </c>
+      <c r="F70">
+        <v>-0.1790609301339625</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1216943641910473</v>
+        <v>0.1356244160492645</v>
       </c>
       <c r="C71">
-        <v>-0.02443136524453384</v>
+        <v>-0.03732913087524366</v>
       </c>
       <c r="D71">
-        <v>0.2862249271360945</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2724012902454894</v>
+      </c>
+      <c r="E71">
+        <v>-0.09759272115998785</v>
+      </c>
+      <c r="F71">
+        <v>0.004434148331463924</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.1383650550653442</v>
+        <v>0.1430962624456641</v>
       </c>
       <c r="C72">
-        <v>-0.02744506126082303</v>
+        <v>-0.02752094710754564</v>
       </c>
       <c r="D72">
-        <v>-0.001059771049026081</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.004812520422338734</v>
+      </c>
+      <c r="E72">
+        <v>0.03590350603760222</v>
+      </c>
+      <c r="F72">
+        <v>0.03052887760292104</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.206195760467424</v>
+        <v>0.2044972857781319</v>
       </c>
       <c r="C73">
-        <v>-0.01708401853628913</v>
+        <v>-0.01330180221703891</v>
       </c>
       <c r="D73">
-        <v>-0.01514132245280354</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.01682155727718558</v>
+      </c>
+      <c r="E73">
+        <v>0.06338538572198464</v>
+      </c>
+      <c r="F73">
+        <v>0.03955467772851953</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.09286237397531384</v>
+        <v>0.09555164967180406</v>
       </c>
       <c r="C74">
-        <v>-0.01368547095740713</v>
+        <v>-0.01369656335016479</v>
       </c>
       <c r="D74">
-        <v>-0.02152491174162404</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.01561040571452557</v>
+      </c>
+      <c r="E74">
+        <v>0.04341566456244157</v>
+      </c>
+      <c r="F74">
+        <v>0.05607405231888182</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.1338796480361902</v>
+        <v>0.1276853792731215</v>
       </c>
       <c r="C75">
-        <v>-0.03008166779173562</v>
+        <v>-0.02856051627905784</v>
       </c>
       <c r="D75">
-        <v>-0.02861097590869437</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.028337482837578</v>
+      </c>
+      <c r="E75">
+        <v>0.05631538358757635</v>
+      </c>
+      <c r="F75">
+        <v>0.02202772858575191</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.08447465875867925</v>
+        <v>0.08942417932672828</v>
       </c>
       <c r="C77">
-        <v>-0.01579258308942198</v>
+        <v>-0.007991879894607331</v>
       </c>
       <c r="D77">
-        <v>-0.09409857155555558</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1141591061712398</v>
+      </c>
+      <c r="E77">
+        <v>0.04338290742839807</v>
+      </c>
+      <c r="F77">
+        <v>0.03500985174156394</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.1049694143065825</v>
+        <v>0.1009209054297541</v>
       </c>
       <c r="C78">
-        <v>-0.04661184982943959</v>
+        <v>-0.03945254816767072</v>
       </c>
       <c r="D78">
-        <v>-0.1002774514473974</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1145159983821284</v>
+      </c>
+      <c r="E78">
+        <v>0.0757380487599619</v>
+      </c>
+      <c r="F78">
+        <v>0.05117811240442122</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.1636589438009624</v>
+        <v>0.1636985839079709</v>
       </c>
       <c r="C79">
-        <v>-0.02414557280463164</v>
+        <v>-0.02330155168157293</v>
       </c>
       <c r="D79">
-        <v>-0.01448322215495109</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.01184849705175725</v>
+      </c>
+      <c r="E79">
+        <v>0.04402145073920969</v>
+      </c>
+      <c r="F79">
+        <v>0.01168481674908583</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.08622000275584317</v>
+        <v>0.08237903906917685</v>
       </c>
       <c r="C80">
-        <v>-0.001867693715886581</v>
+        <v>0.000620146634060106</v>
       </c>
       <c r="D80">
-        <v>-0.0434248682958957</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.05530789409723768</v>
+      </c>
+      <c r="E80">
+        <v>0.03546080379163572</v>
+      </c>
+      <c r="F80">
+        <v>-0.01956914627739118</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.12014989267222</v>
+        <v>0.1181760813266283</v>
       </c>
       <c r="C81">
-        <v>-0.03231255132252446</v>
+        <v>-0.03202493011023283</v>
       </c>
       <c r="D81">
-        <v>-0.02315541059371628</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01359257662338933</v>
+      </c>
+      <c r="E81">
+        <v>0.05480699385685119</v>
+      </c>
+      <c r="F81">
+        <v>0.01955854400334809</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1660739556675306</v>
+        <v>0.1663411738762988</v>
       </c>
       <c r="C82">
-        <v>-0.02488523574249982</v>
+        <v>-0.0255543945133794</v>
       </c>
       <c r="D82">
-        <v>-0.01354012161441185</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.001218835536054642</v>
+      </c>
+      <c r="E82">
+        <v>0.02420522463770336</v>
+      </c>
+      <c r="F82">
+        <v>0.08075462287383832</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.06731080788241814</v>
+        <v>0.05873156886166563</v>
       </c>
       <c r="C83">
-        <v>-0.006261539546051858</v>
+        <v>-0.002987295806950646</v>
       </c>
       <c r="D83">
-        <v>-0.03428783467918164</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.04945818223851028</v>
+      </c>
+      <c r="E83">
+        <v>0.002809279763524282</v>
+      </c>
+      <c r="F83">
+        <v>-0.02920694930204919</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.06479237624822007</v>
+        <v>0.05837700373868279</v>
       </c>
       <c r="C84">
-        <v>-0.01494766261405325</v>
+        <v>-0.0107931133672476</v>
       </c>
       <c r="D84">
-        <v>-0.06487230319713802</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.07268366426889701</v>
+      </c>
+      <c r="E84">
+        <v>0.01461263226337401</v>
+      </c>
+      <c r="F84">
+        <v>0.01421200106015395</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1368356189792131</v>
+        <v>0.135372036829384</v>
       </c>
       <c r="C85">
-        <v>-0.02841366745086851</v>
+        <v>-0.02849385946680401</v>
       </c>
       <c r="D85">
-        <v>-0.01796240609437521</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.007941765959947195</v>
+      </c>
+      <c r="E85">
+        <v>0.03500015048822499</v>
+      </c>
+      <c r="F85">
+        <v>0.0467198491530728</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.1046061397591185</v>
+        <v>0.09314693944535635</v>
       </c>
       <c r="C86">
-        <v>0.001870771832918208</v>
+        <v>0.00641073634221099</v>
       </c>
       <c r="D86">
-        <v>0.006780826909418503</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.05032218977417392</v>
+      </c>
+      <c r="E86">
+        <v>0.2430903734017921</v>
+      </c>
+      <c r="F86">
+        <v>-0.9024711522793015</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.1009964404885224</v>
+        <v>0.09454763211774948</v>
       </c>
       <c r="C87">
-        <v>-0.02905228439971148</v>
+        <v>-0.01932577321935508</v>
       </c>
       <c r="D87">
-        <v>-0.06554448873855657</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.0947244782147912</v>
+      </c>
+      <c r="E87">
+        <v>-0.05251535020417364</v>
+      </c>
+      <c r="F87">
+        <v>0.04801235116797169</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.06108157675944624</v>
+        <v>0.0603937319109743</v>
       </c>
       <c r="C88">
-        <v>-0.005344217851214673</v>
+        <v>-0.002264431955145343</v>
       </c>
       <c r="D88">
-        <v>-0.05429006294045274</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.04951073641779441</v>
+      </c>
+      <c r="E88">
+        <v>0.02403214390396099</v>
+      </c>
+      <c r="F88">
+        <v>0.01530091196066954</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.1160017530119305</v>
+        <v>0.1268822599084342</v>
       </c>
       <c r="C89">
-        <v>-0.001753897549631959</v>
+        <v>-0.01282752898330657</v>
       </c>
       <c r="D89">
-        <v>0.2603474226314377</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.2436304238225107</v>
+      </c>
+      <c r="E89">
+        <v>-0.08925223221633469</v>
+      </c>
+      <c r="F89">
+        <v>-0.01195045094077836</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1327156144123975</v>
+        <v>0.1504272264420218</v>
       </c>
       <c r="C90">
-        <v>-0.02124751896001964</v>
+        <v>-0.03404890075156627</v>
       </c>
       <c r="D90">
-        <v>0.2740356518889032</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2700723976429267</v>
+      </c>
+      <c r="E90">
+        <v>-0.1136887920144131</v>
+      </c>
+      <c r="F90">
+        <v>-0.01241623346313368</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.1199474200792331</v>
+        <v>0.1216522866164328</v>
       </c>
       <c r="C91">
-        <v>-0.01928704288848085</v>
+        <v>-0.0202412566355379</v>
       </c>
       <c r="D91">
-        <v>0.008705480581906122</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.01689247753849635</v>
+      </c>
+      <c r="E91">
+        <v>0.05430078238253316</v>
+      </c>
+      <c r="F91">
+        <v>-0.0009194284921972574</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1369146063227799</v>
+        <v>0.1465553491673402</v>
       </c>
       <c r="C92">
-        <v>-0.01117531093755568</v>
+        <v>-0.02450782327856951</v>
       </c>
       <c r="D92">
-        <v>0.3087920833617757</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.2905296724656448</v>
+      </c>
+      <c r="E92">
+        <v>-0.1015411490400489</v>
+      </c>
+      <c r="F92">
+        <v>-0.02095679619944985</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1361853878917853</v>
+        <v>0.1506005091282765</v>
       </c>
       <c r="C93">
-        <v>-0.01681493037932119</v>
+        <v>-0.02888121307563348</v>
       </c>
       <c r="D93">
-        <v>0.2695869274254508</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2653489725437128</v>
+      </c>
+      <c r="E93">
+        <v>-0.0762019420842136</v>
+      </c>
+      <c r="F93">
+        <v>-0.002039603376759024</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1348367671315945</v>
+        <v>0.1284268569248958</v>
       </c>
       <c r="C94">
-        <v>-0.02724824594987004</v>
+        <v>-0.02503544174459111</v>
       </c>
       <c r="D94">
-        <v>-0.04265095396725059</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04008556373588684</v>
+      </c>
+      <c r="E94">
+        <v>0.05633332506004599</v>
+      </c>
+      <c r="F94">
+        <v>0.03515352573422531</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1265174352966736</v>
+        <v>0.1258582209523977</v>
       </c>
       <c r="C95">
-        <v>-0.01052864767331764</v>
+        <v>-0.003226234685557383</v>
       </c>
       <c r="D95">
-        <v>-0.07646910332018446</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.09803195483506595</v>
+      </c>
+      <c r="E95">
+        <v>0.0530365152913875</v>
+      </c>
+      <c r="F95">
+        <v>-0.005808832807022794</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.1183420254028404</v>
+        <v>0.1104229182127561</v>
       </c>
       <c r="C96">
-        <v>0.9871789936033457</v>
+        <v>0.9869682228172171</v>
       </c>
       <c r="D96">
-        <v>0.009213289478195824</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.05127692726745191</v>
+      </c>
+      <c r="E96">
+        <v>0.05238553511393455</v>
+      </c>
+      <c r="F96">
+        <v>0.04316909570207723</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1920141515181902</v>
+        <v>0.1923347520279116</v>
       </c>
       <c r="C97">
-        <v>0.006310514907852556</v>
+        <v>0.006449445974448737</v>
       </c>
       <c r="D97">
-        <v>0.01425387763212196</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.02080079190821203</v>
+      </c>
+      <c r="E97">
+        <v>0.02071114128359627</v>
+      </c>
+      <c r="F97">
+        <v>-0.09158538322689433</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.1995613558070046</v>
+        <v>0.2064147462014566</v>
       </c>
       <c r="C98">
-        <v>-0.01118502591146149</v>
+        <v>-0.007215938822645958</v>
       </c>
       <c r="D98">
-        <v>-0.01197296542968982</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01348608572993331</v>
+      </c>
+      <c r="E98">
+        <v>-0.07480720741587632</v>
+      </c>
+      <c r="F98">
+        <v>-0.09208654276052387</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.05661751337612567</v>
+        <v>0.05489294504333916</v>
       </c>
       <c r="C99">
-        <v>0.001949792069293053</v>
+        <v>0.00438835861843863</v>
       </c>
       <c r="D99">
-        <v>-0.02275373725468355</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.03832770716647924</v>
+      </c>
+      <c r="E99">
+        <v>0.0212192416751368</v>
+      </c>
+      <c r="F99">
+        <v>0.003609291572654211</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.1416149823900228</v>
+        <v>0.1284657853494738</v>
       </c>
       <c r="C100">
-        <v>0.03752830851354958</v>
+        <v>0.05307760751163891</v>
       </c>
       <c r="D100">
-        <v>-0.4252285076005674</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.3498031652268071</v>
+      </c>
+      <c r="E100">
+        <v>-0.8829231343927044</v>
+      </c>
+      <c r="F100">
+        <v>-0.1691054690009264</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.02629403468428292</v>
+        <v>0.02885711615648065</v>
       </c>
       <c r="C101">
-        <v>-0.009882241053773312</v>
+        <v>-0.008797442208596965</v>
       </c>
       <c r="D101">
-        <v>-0.02083591241017458</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.0309462866604457</v>
+      </c>
+      <c r="E101">
+        <v>0.0134818901953076</v>
+      </c>
+      <c r="F101">
+        <v>-0.01364918211398762</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
